--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GIT\Javascript\NelXml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Akshay/MyScripts/JS/node/NelXml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46DE775A-C952-4C38-9D0D-CECE8E329AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6764CF1-B7B0-F44B-8365-63D9A03980B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{790ACD5C-A558-4BBF-8575-4AF348A3B12B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16840" xr2:uid="{790ACD5C-A558-4BBF-8575-4AF348A3B12B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>C1</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Indentation</t>
   </si>
   <si>
     <t>marks</t>
@@ -137,9 +134,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Marks</t>
   </si>
   <si>
@@ -147,6 +141,15 @@
   </si>
   <si>
     <t>tag1,tag2</t>
+  </si>
+  <si>
+    <t>3/jPmSkBs930.jpg,3/jPmSkBs930.jpg,3/jPmSkBs930.jpg,3/jPmSkBs930.jpg</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>QuestionType</t>
   </si>
 </sst>
 </file>
@@ -539,22 +542,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2747B1-D06D-4CB2-845E-423E8BAA5921}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="181" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -562,301 +565,310 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Akshay/MyScripts/JS/node/NelXml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GIT\Javascript\NelXml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6764CF1-B7B0-F44B-8365-63D9A03980B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD6F04-B67D-4535-809F-1BA90866937C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16840" xr2:uid="{790ACD5C-A558-4BBF-8575-4AF348A3B12B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{790ACD5C-A558-4BBF-8575-4AF348A3B12B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>C1</t>
   </si>
@@ -66,9 +66,6 @@
     <t>MCQI</t>
   </si>
   <si>
-    <t>2/KdUJtaX6HG.jpg</t>
-  </si>
-  <si>
     <t>hashid</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>Header</t>
-  </si>
-  <si>
-    <t>3/jPmSkBs930.jpg</t>
   </si>
   <si>
     <t>Giadiasis is the most common form of non-bacterial diarrhoea of people in Australia. The adult parasite, Giardia
@@ -143,13 +137,16 @@
     <t>tag1,tag2</t>
   </si>
   <si>
-    <t>3/jPmSkBs930.jpg,3/jPmSkBs930.jpg,3/jPmSkBs930.jpg,3/jPmSkBs930.jpg</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
     <t>QuestionType</t>
+  </si>
+  <si>
+    <t>5/WHYsGFDOU8.png</t>
+  </si>
+  <si>
+    <t>6/41ffZDpGiV.png,7/RuGpTECziF.png,8/0YZ2vTvslW.png,9/w6qY2yi6PW.png</t>
   </si>
 </sst>
 </file>
@@ -544,20 +541,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2747B1-D06D-4CB2-845E-423E8BAA5921}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="181" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="63.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -565,87 +562,87 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -654,52 +651,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -708,27 +705,27 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -737,52 +734,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -791,25 +788,25 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -818,32 +815,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
@@ -852,16 +849,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GIT\Javascript\NelXml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Akshay/MyScripts/JS/node/NelXml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD6F04-B67D-4535-809F-1BA90866937C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07E67A-DD9C-EE44-AD3E-1A718528EBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{790ACD5C-A558-4BBF-8575-4AF348A3B12B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{790ACD5C-A558-4BBF-8575-4AF348A3B12B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>C1</t>
   </si>
@@ -81,11 +81,6 @@
 Figure B.</t>
   </si>
   <si>
-    <t>Giardia lives in the upper part of the intestine (duodenum) of an infected person where it multiplies rapidly by
-dividing longitudinally. To pass from one human to another it encloses itself in a cyst that passes out in the
-faeces. These cysts contaminate the food or drink of other humans.</t>
-  </si>
-  <si>
     <t>The sensory neuron is represented by</t>
   </si>
   <si>
@@ -102,9 +97,6 @@
   </si>
   <si>
     <t>MCQ Image</t>
-  </si>
-  <si>
-    <t>Use the histogram to determine</t>
   </si>
   <si>
     <t>Section</t>
@@ -539,22 +531,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2747B1-D06D-4CB2-845E-423E8BAA5921}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -562,44 +554,46 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -608,41 +602,41 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -651,52 +645,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -705,27 +699,27 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
@@ -734,52 +728,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -788,84 +782,77 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
       </c>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Akshay/MyScripts/JS/node/NelXml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07E67A-DD9C-EE44-AD3E-1A718528EBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4BAFC4-6570-4946-9FC4-9965E3F24449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{790ACD5C-A558-4BBF-8575-4AF348A3B12B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{790ACD5C-A558-4BBF-8575-4AF348A3B12B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>C1</t>
   </si>
@@ -533,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2747B1-D06D-4CB2-845E-423E8BAA5921}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -858,4 +859,308 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A988EC96-4426-E940-A675-C6C8BF36C37C}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="63.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>